--- a/low-flow-index/dados-saida/cachoeira.xlsx
+++ b/low-flow-index/dados-saida/cachoeira.xlsx
@@ -410,16 +410,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>30079</v>
       </c>
       <c r="C2" s="2">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E2" s="3">
-        <v>14166</v>
+        <v>14179</v>
       </c>
     </row>
   </sheetData>
